--- a/data/backup.xlsx
+++ b/data/backup.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="406">
   <si>
     <t>name</t>
   </si>
@@ -1472,30 +1472,6 @@
   </si>
   <si>
     <t>采集;种植</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银星果酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工匠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金星上古水果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金星虚空鲑鱼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钓鱼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1611,6 +1587,22 @@
       </rPr>
       <t>种子</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1902,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I998"/>
+  <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2058,11 +2050,17 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2143,6 +2141,9 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
+      <c r="H12" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -2157,6 +2158,9 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
+      <c r="H13" t="s">
+        <v>402</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>315</v>
       </c>
@@ -2171,6 +2175,9 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
+      <c r="H14" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2182,6 +2189,9 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
+      <c r="H15" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -2196,6 +2206,9 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
+      <c r="H16" t="s">
+        <v>402</v>
+      </c>
       <c r="I16" s="4" t="s">
         <v>314</v>
       </c>
@@ -2210,6 +2223,9 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
+      <c r="H17" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -2285,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2342,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2381,6 +2397,7 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -2415,6 +2432,7 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -2450,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2487,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -2518,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2532,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -2549,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -2566,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -2589,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -2606,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -2623,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -2639,8 +2657,9 @@
       <c r="G41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -2657,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -2671,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -2691,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -2704,8 +2723,11 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -2719,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
@@ -2736,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -2783,6 +2805,9 @@
       <c r="G50" s="1">
         <v>2</v>
       </c>
+      <c r="H50" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="I50" s="4" t="s">
         <v>313</v>
       </c>
@@ -2800,6 +2825,9 @@
       <c r="G51" s="1">
         <v>1</v>
       </c>
+      <c r="H51" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -2811,6 +2839,9 @@
       <c r="G52" s="1">
         <v>1</v>
       </c>
+      <c r="H52" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -2828,6 +2859,9 @@
       <c r="G53" s="1">
         <v>1</v>
       </c>
+      <c r="H53" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -3017,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3216,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>131</v>
       </c>
@@ -3233,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -3253,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>134</v>
       </c>
@@ -3273,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>136</v>
       </c>
@@ -3293,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>137</v>
       </c>
@@ -3313,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>138</v>
       </c>
@@ -3333,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>139</v>
       </c>
@@ -3353,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>142</v>
       </c>
@@ -3370,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>143</v>
       </c>
@@ -3387,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>144</v>
       </c>
@@ -3401,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>145</v>
       </c>
@@ -3421,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>146</v>
       </c>
@@ -3438,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>149</v>
       </c>
@@ -3455,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>151</v>
       </c>
@@ -3475,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>154</v>
       </c>
@@ -3488,8 +3522,11 @@
       <c r="G95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>155</v>
       </c>
@@ -3501,6 +3538,9 @@
       </c>
       <c r="G96" s="1">
         <v>1</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3519,6 +3559,9 @@
       <c r="G97" s="1">
         <v>1</v>
       </c>
+      <c r="H97" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
@@ -3584,6 +3627,9 @@
       <c r="G101" s="1">
         <v>2</v>
       </c>
+      <c r="H101" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="I101" s="4" t="s">
         <v>316</v>
       </c>
@@ -3598,6 +3644,9 @@
       <c r="G102" s="1">
         <v>1</v>
       </c>
+      <c r="H102" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -3612,6 +3661,9 @@
       <c r="G103" s="1">
         <v>2</v>
       </c>
+      <c r="H103" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="I103" s="4" t="s">
         <v>317</v>
       </c>
@@ -3626,6 +3678,9 @@
       <c r="G104" s="1">
         <v>2</v>
       </c>
+      <c r="H104" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="I104" s="4" t="s">
         <v>318</v>
       </c>
@@ -3643,6 +3698,9 @@
       <c r="G105" s="1">
         <v>1</v>
       </c>
+      <c r="H105" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -3682,6 +3740,9 @@
       <c r="G108" s="1">
         <v>1</v>
       </c>
+      <c r="H108" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
@@ -3745,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3765,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3805,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3959,6 +4020,9 @@
       <c r="G125" s="1">
         <v>1</v>
       </c>
+      <c r="H125" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -3973,6 +4037,9 @@
       <c r="G126" s="1">
         <v>1</v>
       </c>
+      <c r="H126" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
@@ -3987,6 +4054,9 @@
       <c r="G127" s="1">
         <v>1</v>
       </c>
+      <c r="H127" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -4076,6 +4146,9 @@
       <c r="G134" s="1">
         <v>1</v>
       </c>
+      <c r="H134" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -4087,6 +4160,9 @@
       <c r="G135" s="1">
         <v>1</v>
       </c>
+      <c r="H135" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
@@ -4155,9 +4231,7 @@
       <c r="G139" s="1">
         <v>1</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
@@ -4330,6 +4404,9 @@
       <c r="G150" s="1">
         <v>1</v>
       </c>
+      <c r="H150" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -4450,6 +4527,9 @@
       <c r="E159" s="1">
         <v>1</v>
       </c>
+      <c r="H159" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
@@ -4461,6 +4541,9 @@
       <c r="E160" s="1">
         <v>1</v>
       </c>
+      <c r="H160" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -4472,6 +4555,9 @@
       <c r="E161" s="1">
         <v>1</v>
       </c>
+      <c r="H161" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
@@ -4553,6 +4639,9 @@
       <c r="E167" s="2">
         <v>6</v>
       </c>
+      <c r="H167" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
@@ -4567,6 +4656,9 @@
       <c r="E168" s="2">
         <v>6</v>
       </c>
+      <c r="H168" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -4581,6 +4673,9 @@
       <c r="E169" s="2">
         <v>6</v>
       </c>
+      <c r="H169" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
@@ -4595,6 +4690,9 @@
       <c r="E170" s="2">
         <v>5</v>
       </c>
+      <c r="H170" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
@@ -5056,7 +5154,9 @@
       <c r="F204" s="2">
         <v>1</v>
       </c>
-      <c r="H204" s="2"/>
+      <c r="H204" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
@@ -5068,6 +5168,9 @@
       <c r="F205" s="2">
         <v>5</v>
       </c>
+      <c r="H205" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
@@ -5079,6 +5182,9 @@
       <c r="F206" s="2">
         <v>2</v>
       </c>
+      <c r="H206" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
@@ -5481,7 +5587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>354</v>
       </c>
@@ -5492,7 +5598,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>355</v>
       </c>
@@ -5503,7 +5609,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>356</v>
       </c>
@@ -5514,7 +5620,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>357</v>
       </c>
@@ -5525,7 +5631,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>358</v>
       </c>
@@ -5536,7 +5642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>359</v>
       </c>
@@ -5547,7 +5653,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>360</v>
       </c>
@@ -5558,7 +5664,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>361</v>
       </c>
@@ -5569,7 +5675,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>362</v>
       </c>
@@ -5580,7 +5686,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>363</v>
       </c>
@@ -5591,7 +5697,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>391</v>
       </c>
@@ -5599,7 +5705,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>393</v>
       </c>
@@ -5607,7 +5713,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>395</v>
       </c>
@@ -5615,7 +5721,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>397</v>
       </c>
@@ -5626,46 +5732,24 @@
         <v>398</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="I255" s="4"/>
-    </row>
-    <row r="256" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6389,9 +6473,6 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/backup.xlsx
+++ b/data/backup.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$I$995</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="429">
   <si>
     <t>name</t>
   </si>
@@ -174,9 +177,6 @@
     <t>春;四季</t>
   </si>
   <si>
-    <t>采集;蘑菇树桩</t>
-  </si>
-  <si>
     <t>蓝莓</t>
   </si>
   <si>
@@ -186,9 +186,6 @@
     <t>夏;四季</t>
   </si>
   <si>
-    <t>采集;沙漠矿井;姜岛</t>
-  </si>
-  <si>
     <t>辣椒</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>葡萄</t>
   </si>
   <si>
-    <t>采集;种植</t>
-  </si>
-  <si>
     <t>文森特</t>
   </si>
   <si>
@@ -444,9 +438,6 @@
     <t>冬;四季</t>
   </si>
   <si>
-    <t>采集;矿井</t>
-  </si>
-  <si>
     <t>水晶果</t>
   </si>
   <si>
@@ -465,9 +456,6 @@
     <t>夏;秋;四季</t>
   </si>
   <si>
-    <t>采集;蘑菇树桩;树液提取</t>
-  </si>
-  <si>
     <t>向日葵</t>
   </si>
   <si>
@@ -477,9 +465,6 @@
     <t>紫蘑菇</t>
   </si>
   <si>
-    <t>蘑菇树桩;矿井</t>
-  </si>
-  <si>
     <t>法师</t>
   </si>
   <si>
@@ -495,9 +480,6 @@
     <t>布料</t>
   </si>
   <si>
-    <t>工匠;沙漠矿井;购买</t>
-  </si>
-  <si>
     <t>艾米丽</t>
   </si>
   <si>
@@ -519,9 +501,6 @@
     <t>春;夏</t>
   </si>
   <si>
-    <t>种植;矿井</t>
-  </si>
-  <si>
     <t>羊奶</t>
   </si>
   <si>
@@ -630,9 +609,6 @@
     <t>枫糖浆</t>
   </si>
   <si>
-    <t>树液提取</t>
-  </si>
-  <si>
     <t>橡树树脂</t>
   </si>
   <si>
@@ -663,30 +639,18 @@
     <t>恐龙蛋</t>
   </si>
   <si>
-    <t>动物;沙漠矿井;古物</t>
-  </si>
-  <si>
     <t>鱼籽</t>
   </si>
   <si>
     <t>鱿鱼墨汁</t>
   </si>
   <si>
-    <t>钓鱼;矿井</t>
-  </si>
-  <si>
     <t>茶叶</t>
   </si>
   <si>
-    <t>种植;卡洛琳</t>
-  </si>
-  <si>
     <t>姜</t>
   </si>
   <si>
-    <t>采集;火山矿井</t>
-  </si>
-  <si>
     <t>芋头</t>
   </si>
   <si>
@@ -699,9 +663,6 @@
     <t>火山晶石</t>
   </si>
   <si>
-    <t>火山矿井</t>
-  </si>
-  <si>
     <t>熔岩菇</t>
   </si>
   <si>
@@ -765,9 +726,6 @@
     <t>古代种子</t>
   </si>
   <si>
-    <t>古物</t>
-  </si>
-  <si>
     <t>泪晶</t>
   </si>
   <si>
@@ -910,9 +868,6 @@
   </si>
   <si>
     <t>螃蟹</t>
-  </si>
-  <si>
-    <t>蟹笼;矿井</t>
   </si>
   <si>
     <t>蚌</t>
@@ -1391,10 +1346,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>钓鱼;矿井</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>夏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1440,10 +1391,6 @@
   </si>
   <si>
     <t>生鱼寿司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹饪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1594,15 +1541,559 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>矿井</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>z</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾米丽;克林特;矮人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾米丽;克林特;矮人;阿比盖尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾米丽;克林特;矮人;潘妮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡翠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代玩偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激凌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德米特里厄斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑奖券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷之盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄干布丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞料面包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾芙琳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼;其它</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钓鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蟹笼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它;购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工匠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种植</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工匠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种植</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工匠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>种植</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1896,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1937,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2051,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
@@ -2060,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2142,12 +2633,12 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -2159,10 +2650,10 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2176,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2190,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2207,10 +2698,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2224,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2301,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2358,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2385,8 +2876,8 @@
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
+      <c r="C26" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2401,7 +2892,7 @@
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
@@ -2418,13 +2909,13 @@
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
+      <c r="C28" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -2436,7 +2927,7 @@
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
@@ -2445,7 +2936,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2">
         <v>3</v>
@@ -2456,10 +2947,10 @@
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
@@ -2468,12 +2959,12 @@
         <v>2</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>46</v>
@@ -2490,7 +2981,7 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>46</v>
@@ -2507,7 +2998,7 @@
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>46</v>
@@ -2521,10 +3012,10 @@
     </row>
     <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -2538,7 +3029,7 @@
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
@@ -2552,10 +3043,10 @@
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2569,10 +3060,10 @@
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2586,16 +3077,16 @@
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2609,10 +3100,10 @@
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>18</v>
@@ -2626,10 +3117,10 @@
     </row>
     <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>18</v>
@@ -2643,13 +3134,13 @@
     </row>
     <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2661,10 +3152,10 @@
     </row>
     <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -2678,10 +3169,10 @@
     </row>
     <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -2692,16 +3183,16 @@
     </row>
     <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -2712,27 +3203,27 @@
     </row>
     <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -2743,10 +3234,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>18</v>
@@ -2760,10 +3251,10 @@
     </row>
     <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
@@ -2774,7 +3265,7 @@
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>46</v>
@@ -2786,18 +3277,18 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -2806,18 +3297,18 @@
         <v>2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2">
         <v>2</v>
@@ -2826,29 +3317,29 @@
         <v>1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -2860,12 +3351,12 @@
         <v>1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -2876,7 +3367,7 @@
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -2887,7 +3378,7 @@
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -2898,10 +3389,10 @@
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -2912,10 +3403,10 @@
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2">
         <v>52</v>
@@ -2929,7 +3420,7 @@
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E59" s="1">
         <v>25</v>
@@ -2943,13 +3434,13 @@
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -2958,49 +3449,49 @@
         <v>2</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -3008,38 +3499,38 @@
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>47</v>
@@ -3051,12 +3542,12 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -3067,7 +3558,7 @@
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -3078,7 +3569,7 @@
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -3089,7 +3580,7 @@
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -3100,7 +3591,7 @@
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -3111,7 +3602,7 @@
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -3122,7 +3613,7 @@
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -3133,10 +3624,10 @@
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>10</v>
@@ -3147,10 +3638,10 @@
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
@@ -3167,7 +3658,7 @@
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>46</v>
@@ -3181,7 +3672,7 @@
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>46</v>
@@ -3198,10 +3689,10 @@
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>10</v>
@@ -3215,16 +3706,16 @@
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3233,12 +3724,12 @@
         <v>6</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>9</v>
@@ -3252,7 +3743,7 @@
     </row>
     <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>9</v>
@@ -3261,7 +3752,7 @@
         <v>18</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -3269,7 +3760,7 @@
     </row>
     <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>46</v>
@@ -3289,13 +3780,13 @@
     </row>
     <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -3309,10 +3800,10 @@
     </row>
     <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>10</v>
@@ -3329,10 +3820,10 @@
     </row>
     <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
@@ -3349,10 +3840,10 @@
     </row>
     <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>10</v>
@@ -3369,13 +3860,13 @@
     </row>
     <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -3389,13 +3880,13 @@
     </row>
     <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -3406,10 +3897,10 @@
     </row>
     <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>10</v>
@@ -3423,10 +3914,10 @@
     </row>
     <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>18</v>
@@ -3437,10 +3928,10 @@
     </row>
     <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>10</v>
@@ -3457,13 +3948,13 @@
     </row>
     <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -3474,16 +3965,16 @@
     </row>
     <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -3491,16 +3982,16 @@
     </row>
     <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -3511,10 +4002,10 @@
     </row>
     <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2">
         <v>3</v>
@@ -3523,35 +4014,35 @@
         <v>1</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E97" s="1">
         <v>2</v>
@@ -3560,21 +4051,21 @@
         <v>1</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -3583,18 +4074,18 @@
         <v>2</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -3605,13 +4096,13 @@
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -3619,7 +4110,7 @@
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>33</v>
@@ -3628,15 +4119,15 @@
         <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>33</v>
@@ -3645,69 +4136,69 @@
         <v>1</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G103" s="1">
         <v>2</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G104" s="1">
         <v>2</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -3715,13 +4206,13 @@
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -3729,41 +4220,41 @@
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>18</v>
@@ -3774,16 +4265,16 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
@@ -3791,7 +4282,7 @@
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>9</v>
@@ -3800,18 +4291,18 @@
         <v>18</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>46</v>
@@ -3820,27 +4311,27 @@
         <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -3851,7 +4342,7 @@
     </row>
     <row r="115" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>9</v>
@@ -3866,15 +4357,15 @@
         <v>1</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>29</v>
@@ -3888,13 +4379,13 @@
     </row>
     <row r="117" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -3902,7 +4393,7 @@
     </row>
     <row r="118" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>9</v>
@@ -3919,7 +4410,7 @@
     </row>
     <row r="119" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>46</v>
@@ -3928,7 +4419,7 @@
         <v>29</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G119" s="1">
         <v>1</v>
@@ -3936,7 +4427,7 @@
     </row>
     <row r="120" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>46</v>
@@ -3945,7 +4436,7 @@
         <v>29</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
@@ -3953,16 +4444,16 @@
     </row>
     <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G121" s="1">
         <v>1</v>
@@ -3970,7 +4461,7 @@
     </row>
     <row r="122" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>9</v>
@@ -3984,7 +4475,7 @@
     </row>
     <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -3995,7 +4486,7 @@
     </row>
     <row r="124" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -4006,10 +4497,10 @@
     </row>
     <row r="125" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -4021,15 +4512,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="E126" s="1">
         <v>2</v>
@@ -4038,15 +4529,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="E127" s="1">
         <v>7</v>
@@ -4055,12 +4546,12 @@
         <v>1</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -4071,7 +4562,7 @@
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -4082,10 +4573,10 @@
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -4096,10 +4587,10 @@
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -4110,7 +4601,7 @@
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -4121,7 +4612,7 @@
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>40</v>
@@ -4138,55 +4629,55 @@
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="G135" s="1">
         <v>1</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F137" s="2">
         <v>2</v>
@@ -4197,30 +4688,30 @@
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>219</v>
+        <v>154</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="G138" s="1">
         <v>2</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>221</v>
+      <c r="C139" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -4235,7 +4726,7 @@
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>28</v>
@@ -4252,7 +4743,7 @@
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>28</v>
@@ -4269,7 +4760,7 @@
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>28</v>
@@ -4278,7 +4769,7 @@
         <v>29</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
@@ -4289,13 +4780,13 @@
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>226</v>
+      <c r="C143" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="E143" s="1">
         <v>70</v>
@@ -4309,13 +4800,13 @@
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>226</v>
+      <c r="C144" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="G144" s="1">
         <v>1</v>
@@ -4323,7 +4814,7 @@
     </row>
     <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
@@ -4334,7 +4825,7 @@
     </row>
     <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G146" s="1">
         <v>1</v>
@@ -4345,7 +4836,7 @@
     </row>
     <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>40</v>
@@ -4362,18 +4853,18 @@
     </row>
     <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>10</v>
@@ -4393,10 +4884,10 @@
     </row>
     <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="E150" s="1">
         <v>2</v>
@@ -4405,18 +4896,18 @@
         <v>1</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -4424,35 +4915,35 @@
     </row>
     <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>9</v>
@@ -4466,7 +4957,7 @@
     </row>
     <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>46</v>
@@ -4480,10 +4971,10 @@
     </row>
     <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>18</v>
@@ -4494,10 +4985,10 @@
     </row>
     <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>18</v>
@@ -4508,10 +4999,10 @@
     </row>
     <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
@@ -4519,52 +5010,52 @@
     </row>
     <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E161" s="1">
         <v>1</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
@@ -4572,10 +5063,10 @@
     </row>
     <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="E163" s="2">
         <v>2</v>
@@ -4583,13 +5074,13 @@
     </row>
     <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E164" s="1">
         <v>10</v>
@@ -4597,13 +5088,13 @@
     </row>
     <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -4611,13 +5102,13 @@
     </row>
     <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
@@ -4628,10 +5119,10 @@
     </row>
     <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>10</v>
@@ -4640,15 +5131,15 @@
         <v>6</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>10</v>
@@ -4657,15 +5148,15 @@
         <v>6</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>10</v>
@@ -4674,15 +5165,15 @@
         <v>6</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
@@ -4691,15 +5182,15 @@
         <v>5</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>226</v>
+        <v>244</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="E171" s="2">
         <v>6</v>
@@ -4710,10 +5201,10 @@
     </row>
     <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
@@ -4721,13 +5212,13 @@
     </row>
     <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E173" s="2">
         <v>1</v>
@@ -4735,10 +5226,10 @@
     </row>
     <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C174" s="2" t="s">
         <v>248</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>40</v>
@@ -4749,7 +5240,7 @@
     </row>
     <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E175" s="2">
         <v>180</v>
@@ -4760,66 +5251,66 @@
     </row>
     <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F176" s="2">
         <v>18</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F177" s="2">
         <v>22</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F178" s="2">
         <v>3</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F179" s="2">
         <v>4</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -4828,35 +5319,35 @@
         <v>11</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F181" s="2">
         <v>3</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
@@ -4864,10 +5355,10 @@
     </row>
     <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
@@ -4875,10 +5366,10 @@
     </row>
     <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
@@ -4886,10 +5377,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
@@ -4897,10 +5388,10 @@
     </row>
     <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F186" s="2">
         <v>1</v>
@@ -4908,10 +5399,10 @@
     </row>
     <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F187" s="2">
         <v>2</v>
@@ -4919,13 +5410,13 @@
     </row>
     <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F188" s="2">
         <v>1</v>
@@ -4933,10 +5424,10 @@
     </row>
     <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F189" s="2">
         <v>2</v>
@@ -4944,13 +5435,13 @@
     </row>
     <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F190" s="2">
         <v>1</v>
@@ -4958,13 +5449,13 @@
     </row>
     <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F191" s="2">
         <v>2</v>
@@ -4972,13 +5463,13 @@
     </row>
     <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F192" s="2">
         <v>1</v>
@@ -4986,13 +5477,13 @@
     </row>
     <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F193" s="2">
         <v>1</v>
@@ -5000,13 +5491,13 @@
     </row>
     <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F194" s="2">
         <v>1</v>
@@ -5014,13 +5505,13 @@
     </row>
     <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
@@ -5028,13 +5519,13 @@
     </row>
     <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
@@ -5042,13 +5533,13 @@
     </row>
     <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F197" s="2">
         <v>1</v>
@@ -5056,13 +5547,13 @@
     </row>
     <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F198" s="2">
         <v>4</v>
@@ -5070,13 +5561,13 @@
     </row>
     <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F199" s="2">
         <v>1</v>
@@ -5084,13 +5575,13 @@
     </row>
     <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F200" s="2">
         <v>2</v>
@@ -5098,13 +5589,13 @@
     </row>
     <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F201" s="2">
         <v>1</v>
@@ -5112,16 +5603,16 @@
     </row>
     <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F202" s="2">
         <v>1</v>
@@ -5129,10 +5620,10 @@
     </row>
     <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E203" s="2">
         <v>1</v>
@@ -5141,615 +5632,750 @@
         <v>2</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F204" s="2">
         <v>1</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>217</v>
+        <v>274</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="F205" s="2">
         <v>5</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>217</v>
+        <v>275</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="F206" s="2">
         <v>2</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="G229">
         <v>1</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C260" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H254" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C262" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6474,6 +7100,7 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:I995"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/data/backup.xlsx
+++ b/data/backup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="433">
   <si>
     <t>name</t>
   </si>
@@ -2094,6 +2094,22 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生鱼片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞巴斯蒂安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长笛块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2387,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6372,8 +6388,25 @@
         <v>410</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
     <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/data/backup.xlsx
+++ b/data/backup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="396">
   <si>
     <t>name</t>
   </si>
@@ -1199,6 +1199,10 @@
   </si>
   <si>
     <t>长笛块</t>
+  </si>
+  <si>
+    <t>夏;秋;四季</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2140,7 +2144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4458,6 +4464,9 @@
       <c r="A133" t="s">
         <v>224</v>
       </c>
+      <c r="B133" t="s">
+        <v>395</v>
+      </c>
       <c r="D133" t="s">
         <v>49</v>
       </c>
@@ -4466,9 +4475,6 @@
       </c>
       <c r="G133">
         <v>1</v>
-      </c>
-      <c r="J133" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
